--- a/data/trans_orig/IP25A_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25A_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31CF036-D6AF-4BE9-A8E3-E5F2802620C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7CC373E-C36C-4A16-A434-25F5B0D0C655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B019ED43-199E-416B-A03C-0A5B1FC74E25}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EA1E7D42-2BAA-4BA0-8FC5-D732940CFC06}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>80,29%</t>
   </si>
   <si>
@@ -98,9 +218,6 @@
     <t>83,04%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>19,71%</t>
   </si>
   <si>
@@ -128,64 +245,61 @@
     <t>24,19%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -243,120 +357,6 @@
   </si>
   <si>
     <t>22,87%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
   </si>
   <si>
     <t>76,45%</t>
@@ -802,7 +802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9098046E-E38F-4866-9309-08F34BB70F06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95246475-7BF2-4474-93BE-28A7DF20C1C2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -920,10 +920,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>199982</v>
+        <v>10757</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -935,10 +935,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>150763</v>
+        <v>13808</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -950,10 +950,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>506</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>350745</v>
+        <v>24565</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -971,10 +971,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>49080</v>
+        <v>1941</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -986,10 +986,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>40412</v>
+        <v>2144</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1001,10 +1001,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>89491</v>
+        <v>4085</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1022,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>249062</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1037,10 +1037,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="I6" s="7">
-        <v>191175</v>
+        <v>15952</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1052,10 +1052,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>617</v>
+        <v>46</v>
       </c>
       <c r="N6" s="7">
-        <v>440236</v>
+        <v>28650</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="D10" s="7">
-        <v>143317</v>
+        <v>199982</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1245,10 +1245,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="I10" s="7">
-        <v>134200</v>
+        <v>150763</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1260,10 +1260,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>386</v>
+        <v>506</v>
       </c>
       <c r="N10" s="7">
-        <v>277517</v>
+        <v>350745</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1281,10 +1281,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7">
-        <v>30574</v>
+        <v>49080</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1296,10 +1296,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>32572</v>
+        <v>40412</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1311,10 +1311,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="N11" s="7">
-        <v>63146</v>
+        <v>89491</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1332,10 +1332,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="D12" s="7">
-        <v>173891</v>
+        <v>249062</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1347,10 +1347,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="I12" s="7">
-        <v>166772</v>
+        <v>191175</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1362,10 +1362,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>469</v>
+        <v>617</v>
       </c>
       <c r="N12" s="7">
-        <v>340663</v>
+        <v>440236</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1385,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D13" s="7">
-        <v>10757</v>
+        <v>117896</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1400,10 +1400,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="I13" s="7">
-        <v>13808</v>
+        <v>111194</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1415,10 +1415,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="N13" s="7">
-        <v>24565</v>
+        <v>229090</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1436,10 +1436,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7">
-        <v>1941</v>
+        <v>51120</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1451,10 +1451,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="I14" s="7">
-        <v>2144</v>
+        <v>51306</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1466,10 +1466,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="N14" s="7">
-        <v>4085</v>
+        <v>102426</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1487,10 +1487,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>169016</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1502,10 +1502,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="I15" s="7">
-        <v>15952</v>
+        <v>162500</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1517,10 +1517,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>46</v>
+        <v>438</v>
       </c>
       <c r="N15" s="7">
-        <v>28650</v>
+        <v>331516</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1540,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="D16" s="7">
-        <v>117896</v>
+        <v>143317</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1555,10 +1555,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="I16" s="7">
-        <v>111194</v>
+        <v>134200</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1570,10 +1570,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="N16" s="7">
-        <v>229090</v>
+        <v>277517</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1591,10 +1591,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>51120</v>
+        <v>30574</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1606,10 +1606,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I17" s="7">
-        <v>51306</v>
+        <v>32572</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1621,10 +1621,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="N17" s="7">
-        <v>102426</v>
+        <v>63146</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1642,10 +1642,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D18" s="7">
-        <v>169016</v>
+        <v>173891</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1657,10 +1657,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="I18" s="7">
-        <v>162500</v>
+        <v>166772</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1672,10 +1672,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="N18" s="7">
-        <v>331516</v>
+        <v>340663</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP25A_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25A_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7CC373E-C36C-4A16-A434-25F5B0D0C655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC5FAFC6-DC34-4D00-9F92-718C975D07D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EA1E7D42-2BAA-4BA0-8FC5-D732940CFC06}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2277679A-100F-4BE3-8DAD-CE0B07BAD900}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Menores según si dedican más de dos horas a aparatos electrónicos entre semana en 2023 (Tasa respuesta: 98,28%)</t>
   </si>
@@ -68,6 +68,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -98,319 +128,286 @@
     <t>94,62%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
     <t>67,97%</t>
   </si>
   <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>74,95%</t>
   </si>
   <si>
-    <t>67,02%</t>
+    <t>67,07%</t>
   </si>
   <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
     <t>80,29%</t>
   </si>
   <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>78,86%</t>
   </si>
   <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>79,67%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
     <t>69,75%</t>
   </si>
   <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
   <si>
     <t>68,43%</t>
   </si>
   <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
   </si>
   <si>
     <t>69,1%</t>
   </si>
   <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
+    <t>74,75%</t>
   </si>
   <si>
     <t>81,46%</t>
   </si>
   <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -421,7 +418,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -517,39 +514,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -601,7 +598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -712,13 +709,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -727,6 +717,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -791,19 +788,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95246475-7BF2-4474-93BE-28A7DF20C1C2}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03F8631-8565-43FF-87D1-D438BC1B69CE}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -920,10 +937,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>10757</v>
+        <v>1941</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -935,10 +952,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>13808</v>
+        <v>2144</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -950,10 +967,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>24565</v>
+        <v>4085</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -971,10 +988,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>1941</v>
+        <v>10757</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -986,10 +1003,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>2144</v>
+        <v>13808</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1001,10 +1018,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>4085</v>
+        <v>24565</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1075,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>77889</v>
+        <v>36707</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1090,10 +1107,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>84442</v>
+        <v>17551</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1105,10 +1122,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c r="N7" s="7">
-        <v>162331</v>
+        <v>54257</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1126,10 +1143,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="D8" s="7">
-        <v>36707</v>
+        <v>77889</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1141,10 +1158,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="I8" s="7">
-        <v>17551</v>
+        <v>84441</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1156,10 +1173,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>62</v>
+        <v>255</v>
       </c>
       <c r="N8" s="7">
-        <v>54257</v>
+        <v>162331</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1195,7 +1212,7 @@
         <v>165</v>
       </c>
       <c r="I9" s="7">
-        <v>101993</v>
+        <v>101992</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1247,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>199982</v>
+        <v>49080</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1245,10 +1262,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>150763</v>
+        <v>40412</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1260,10 +1277,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>506</v>
+        <v>111</v>
       </c>
       <c r="N10" s="7">
-        <v>350745</v>
+        <v>89491</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1281,10 +1298,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>59</v>
+        <v>281</v>
       </c>
       <c r="D11" s="7">
-        <v>49080</v>
+        <v>199982</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1296,10 +1313,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="I11" s="7">
-        <v>40412</v>
+        <v>150763</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1311,10 +1328,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>111</v>
+        <v>506</v>
       </c>
       <c r="N11" s="7">
-        <v>89491</v>
+        <v>350745</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1385,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>117896</v>
+        <v>51120</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1400,10 +1417,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="I13" s="7">
-        <v>111194</v>
+        <v>51306</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1415,10 +1432,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>320</v>
+        <v>118</v>
       </c>
       <c r="N13" s="7">
-        <v>229090</v>
+        <v>102426</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1436,10 +1453,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="D14" s="7">
-        <v>51120</v>
+        <v>117896</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1451,10 +1468,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="I14" s="7">
-        <v>51306</v>
+        <v>111194</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1466,10 +1483,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>118</v>
+        <v>320</v>
       </c>
       <c r="N14" s="7">
-        <v>102426</v>
+        <v>229090</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1540,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>143317</v>
+        <v>30574</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1555,34 +1572,34 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="I16" s="7">
-        <v>134200</v>
+        <v>32572</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>83</v>
+      </c>
+      <c r="N16" s="7">
+        <v>63146</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>386</v>
-      </c>
-      <c r="N16" s="7">
-        <v>277517</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1591,49 +1608,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="D17" s="7">
-        <v>30574</v>
+        <v>143317</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>189</v>
+      </c>
+      <c r="I17" s="7">
+        <v>134200</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>44</v>
-      </c>
-      <c r="I17" s="7">
-        <v>32572</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="7">
+        <v>386</v>
+      </c>
+      <c r="N17" s="7">
+        <v>277518</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>83</v>
-      </c>
-      <c r="N17" s="7">
-        <v>63146</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1675,7 +1692,7 @@
         <v>469</v>
       </c>
       <c r="N18" s="7">
-        <v>340663</v>
+        <v>340664</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1695,49 +1712,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>769</v>
+        <v>199</v>
       </c>
       <c r="D19" s="7">
-        <v>549842</v>
+        <v>169421</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>182</v>
+      </c>
+      <c r="I19" s="7">
+        <v>143984</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="7">
-        <v>737</v>
-      </c>
-      <c r="I19" s="7">
-        <v>494407</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>381</v>
+      </c>
+      <c r="N19" s="7">
+        <v>313406</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="7">
-        <v>1506</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1044248</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,49 +1763,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>199</v>
+        <v>769</v>
       </c>
       <c r="D20" s="7">
-        <v>169421</v>
+        <v>549842</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>737</v>
+      </c>
+      <c r="I20" s="7">
+        <v>494407</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="7">
-        <v>182</v>
-      </c>
-      <c r="I20" s="7">
-        <v>143984</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1506</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1044248</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M20" s="7">
-        <v>381</v>
-      </c>
-      <c r="N20" s="7">
-        <v>313406</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,6 +1857,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25A_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25A_1_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC5FAFC6-DC34-4D00-9F92-718C975D07D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42AEF8C5-C88B-4E47-9A78-DC1A129DCF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2277679A-100F-4BE3-8DAD-CE0B07BAD900}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72A79D3E-9E19-4065-ACB5-CCEE8A973C31}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Menores según si dedican más de dos horas a aparatos electrónicos entre semana en 2023 (Tasa respuesta: 98,28%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,28 +74,28 @@
     <t>15,28%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>14,26%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,202 +104,202 @@
     <t>84,72%</t>
   </si>
   <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>86,56%</t>
   </si>
   <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>85,74%</t>
   </si>
   <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
   </si>
   <si>
     <t>25,05%</t>
   </si>
   <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>67,97%</t>
   </si>
   <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>74,95%</t>
   </si>
   <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
   </si>
   <si>
     <t>20,33%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>80,29%</t>
   </si>
   <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>78,86%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>79,67%</t>
   </si>
   <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>30,25%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
   </si>
   <si>
     <t>31,57%</t>
   </si>
   <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
   </si>
   <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
   </si>
   <si>
     <t>69,75%</t>
   </si>
   <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
   </si>
   <si>
     <t>68,43%</t>
   </si>
   <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
   </si>
   <si>
     <t>69,1%</t>
   </si>
   <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +308,109 @@
     <t>17,58%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>25,25%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
   </si>
   <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>74,75%</t>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>81,46%</t>
   </si>
   <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -819,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03F8631-8565-43FF-87D1-D438BC1B69CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416AC5BB-47DB-4D09-BC79-098F35DA6224}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1161,7 +1167,7 @@
         <v>141</v>
       </c>
       <c r="I8" s="7">
-        <v>84441</v>
+        <v>84442</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1212,7 +1218,7 @@
         <v>165</v>
       </c>
       <c r="I9" s="7">
-        <v>101992</v>
+        <v>101993</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1581,10 +1587,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -1593,13 +1599,13 @@
         <v>63146</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1620,13 @@
         <v>143317</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
@@ -1629,13 +1635,13 @@
         <v>134200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>386</v>
@@ -1644,13 +1650,13 @@
         <v>277518</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1724,13 @@
         <v>169421</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>182</v>
@@ -1733,13 +1739,13 @@
         <v>143984</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>381</v>
@@ -1748,13 +1754,13 @@
         <v>313406</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1775,13 @@
         <v>549842</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>737</v>
@@ -1784,13 +1790,13 @@
         <v>494407</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1506</v>
@@ -1799,13 +1805,13 @@
         <v>1044248</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25A_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25A_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42AEF8C5-C88B-4E47-9A78-DC1A129DCF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A3CC163-6D38-4E70-B50C-27B6B27A5CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72A79D3E-9E19-4065-ACB5-CCEE8A973C31}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2D608D54-44A3-4B3C-BD9E-C845E1659DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si dedican más de dos horas a aparatos electrónicos entre semana en 2023 (Tasa respuesta: 98,28%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>80,29%</t>
   </si>
   <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416AC5BB-47DB-4D09-BC79-098F35DA6224}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3B007B-8C1E-49EF-93EF-ADAB4C27974B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>1941</v>
+        <v>18762</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>2144</v>
+        <v>48052</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="N4" s="7">
-        <v>4085</v>
+        <v>66815</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="D5" s="7">
-        <v>10757</v>
+        <v>95840</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="I5" s="7">
-        <v>13808</v>
+        <v>92360</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="N5" s="7">
-        <v>24565</v>
+        <v>188199</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>114602</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>15952</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>363</v>
       </c>
       <c r="N6" s="7">
-        <v>28650</v>
+        <v>255014</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>36707</v>
+        <v>38468</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I7" s="7">
-        <v>17551</v>
+        <v>50714</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="N7" s="7">
-        <v>54257</v>
+        <v>89182</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="D8" s="7">
-        <v>77889</v>
+        <v>150866</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>141</v>
+        <v>281</v>
       </c>
       <c r="I8" s="7">
-        <v>84442</v>
+        <v>203182</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>255</v>
+        <v>506</v>
       </c>
       <c r="N8" s="7">
-        <v>162331</v>
+        <v>354048</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>189334</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="I9" s="7">
-        <v>101993</v>
+        <v>253896</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>317</v>
+        <v>617</v>
       </c>
       <c r="N9" s="7">
-        <v>216588</v>
+        <v>443230</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>49080</v>
+        <v>71189</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>40412</v>
+        <v>53031</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="N10" s="7">
-        <v>89491</v>
+        <v>124220</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>281</v>
+        <v>159</v>
       </c>
       <c r="D11" s="7">
-        <v>199982</v>
+        <v>112958</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="I11" s="7">
-        <v>150763</v>
+        <v>127646</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>506</v>
+        <v>320</v>
       </c>
       <c r="N11" s="7">
-        <v>350745</v>
+        <v>240604</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>340</v>
+        <v>217</v>
       </c>
       <c r="D12" s="7">
-        <v>249062</v>
+        <v>184147</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="I12" s="7">
-        <v>191175</v>
+        <v>180677</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>617</v>
+        <v>438</v>
       </c>
       <c r="N12" s="7">
-        <v>440236</v>
+        <v>364824</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>51120</v>
+        <v>32112</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>51306</v>
+        <v>32083</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="N13" s="7">
-        <v>102426</v>
+        <v>64195</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D14" s="7">
-        <v>117896</v>
+        <v>130800</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="I14" s="7">
-        <v>111194</v>
+        <v>147992</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="N14" s="7">
-        <v>229090</v>
+        <v>278791</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D15" s="7">
-        <v>169016</v>
+        <v>162912</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="I15" s="7">
-        <v>162500</v>
+        <v>180075</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="N15" s="7">
-        <v>331516</v>
+        <v>342986</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="D16" s="7">
-        <v>30574</v>
+        <v>160532</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>199</v>
+      </c>
+      <c r="I16" s="7">
+        <v>183880</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>44</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32572</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>381</v>
+      </c>
+      <c r="N16" s="7">
+        <v>344412</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>83</v>
-      </c>
-      <c r="N16" s="7">
-        <v>63146</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>197</v>
+        <v>737</v>
       </c>
       <c r="D17" s="7">
-        <v>143317</v>
+        <v>490462</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>769</v>
+      </c>
+      <c r="I17" s="7">
+        <v>571180</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>189</v>
-      </c>
-      <c r="I17" s="7">
-        <v>134200</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1506</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1061643</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>386</v>
-      </c>
-      <c r="N17" s="7">
-        <v>277518</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>236</v>
+        <v>919</v>
       </c>
       <c r="D18" s="7">
-        <v>173891</v>
+        <v>650994</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>233</v>
+        <v>968</v>
       </c>
       <c r="I18" s="7">
-        <v>166772</v>
+        <v>755060</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>469</v>
+        <v>1887</v>
       </c>
       <c r="N18" s="7">
-        <v>340664</v>
+        <v>1406055</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>199</v>
-      </c>
-      <c r="D19" s="7">
-        <v>169421</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>182</v>
-      </c>
-      <c r="I19" s="7">
-        <v>143984</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>381</v>
-      </c>
-      <c r="N19" s="7">
-        <v>313406</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>769</v>
-      </c>
-      <c r="D20" s="7">
-        <v>549842</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>737</v>
-      </c>
-      <c r="I20" s="7">
-        <v>494407</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1506</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1044248</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>968</v>
-      </c>
-      <c r="D21" s="7">
-        <v>719263</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>919</v>
-      </c>
-      <c r="I21" s="7">
-        <v>638391</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1887</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1357654</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
